--- a/document/交易大盘数据库设计表@20180322.xlsx
+++ b/document/交易大盘数据库设计表@20180322.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22936" windowHeight="9934" activeTab="4" tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22936" windowHeight="9918" activeTab="4" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="374">
   <si>
     <t>user_tab</t>
   </si>
@@ -1527,49 +1527,6 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Syl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Account-</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainAddress</t>
-  </si>
-  <si>
-    <t>盛源链地址</t>
-  </si>
-  <si>
-    <t>chainAddressName</t>
-  </si>
-  <si>
-    <t>盛源链地址别名</t>
-  </si>
-  <si>
     <t>shengyuanCoin</t>
   </si>
   <si>
@@ -1629,9 +1586,6 @@
   </si>
   <si>
     <t>SYL转账盛源链记录(SYL--&gt;JYDP)</t>
-  </si>
-  <si>
-    <t>userSylAccount</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -2474,6 +2428,276 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -2704,246 +2928,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2987,9 +2971,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3178,75 +3162,6 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="53" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="55" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3256,19 +3171,19 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="72" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="52" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="73" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="53" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="74" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="54" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="75" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="55" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="76" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="56" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
@@ -3280,13 +3195,13 @@
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="1">
@@ -3297,13 +3212,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1"/>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="83" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="63" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="84" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="64" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="85" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="65" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
@@ -3312,20 +3227,96 @@
     <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="86" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="66" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="87" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="67" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="71" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="72" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -3368,17 +3359,17 @@
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -3526,7 +3517,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="97" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="9"/>
@@ -3550,7 +3541,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="67"/>
+      <c r="I9" s="96"/>
       <c r="J9" s="9"/>
       <c r="K9" s="8"/>
     </row>
@@ -3720,17 +3711,17 @@
       <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="72"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
@@ -3900,17 +3891,17 @@
       <c r="B25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="75"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="104"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
@@ -4364,17 +4355,17 @@
       <c r="B47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
@@ -4627,17 +4618,17 @@
       <c r="B59" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="75"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="104"/>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="5" t="s">
@@ -4898,17 +4889,17 @@
       <c r="B72" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="66" t="s">
+      <c r="C72" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="95"/>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
@@ -4962,7 +4953,7 @@
       <c r="H74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I74" s="70" t="s">
+      <c r="I74" s="99" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="9"/>
@@ -4986,7 +4977,7 @@
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="69"/>
+      <c r="I75" s="98"/>
       <c r="J75" s="9"/>
       <c r="K75" s="8"/>
     </row>
@@ -5099,17 +5090,17 @@
       <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -5275,17 +5266,17 @@
       <c r="B10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="75"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="104"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
@@ -5405,17 +5396,17 @@
       <c r="B16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
@@ -5533,17 +5524,17 @@
       <c r="B22" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
@@ -5755,17 +5746,17 @@
       <c r="B32" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="75"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
@@ -5929,17 +5920,17 @@
       <c r="B40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="75"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
@@ -6205,17 +6196,17 @@
       <c r="B53" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="75"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="104"/>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="5" t="s">
@@ -6481,17 +6472,17 @@
       <c r="B66" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C66" s="77" t="s">
+      <c r="C66" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="75"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="105"/>
+      <c r="K66" s="104"/>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="5" t="s">
@@ -6785,17 +6776,17 @@
       <c r="B80" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C80" s="77" t="s">
+      <c r="C80" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
-      <c r="K80" s="75"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="105"/>
+      <c r="K80" s="104"/>
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="5" t="s">
@@ -7127,17 +7118,17 @@
       <c r="B2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -7501,17 +7492,17 @@
       <c r="B19" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
@@ -7901,17 +7892,17 @@
       <c r="B37" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
@@ -8277,17 +8268,17 @@
       <c r="B54" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="5" t="s">
@@ -8579,17 +8570,17 @@
       <c r="B68" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="95"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="5" t="s">
@@ -8817,17 +8808,17 @@
       <c r="B79" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="66" t="s">
+      <c r="C79" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="66"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="95"/>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="5" t="s">
@@ -9027,17 +9018,17 @@
       <c r="B89" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="66" t="s">
+      <c r="C89" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="95"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="95"/>
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
@@ -9281,17 +9272,17 @@
       <c r="B2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="72"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -9501,17 +9492,17 @@
       <c r="B12" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="95" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
@@ -9713,17 +9704,17 @@
       <c r="B22" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
@@ -9921,17 +9912,17 @@
       <c r="B32" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="75"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="104"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
@@ -10135,17 +10126,17 @@
       <c r="B42" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="75"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="5" t="s">
@@ -10349,17 +10340,17 @@
       <c r="B52" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
@@ -10509,17 +10500,17 @@
       <c r="B60" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="111" t="s">
         <v>317</v>
       </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="80"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="109"/>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="20" t="s">
@@ -10661,17 +10652,17 @@
       <c r="B67" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C67" s="85" t="s">
+      <c r="C67" s="114" t="s">
         <v>329</v>
       </c>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="83"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="112"/>
       <c r="L67" s="36"/>
     </row>
     <row r="68" spans="1:12" s="2" customFormat="1" ht="15.0" customHeight="1" x14ac:dyDescent="0.15">
@@ -10933,8 +10924,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -10948,851 +10939,710 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112"/>
-      <c r="B1" s="114" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="91" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="104"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="112"/>
-      <c r="B2" s="99" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="104"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="112"/>
-      <c r="B3" s="111" t="s">
+      <c r="A3" s="89"/>
+      <c r="B3" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="91">
+      <c r="E3" s="68">
         <v>11.0</v>
       </c>
-      <c r="F3" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="104"/>
+      <c r="F3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
-      <c r="B4" s="111" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="88" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="91">
+      <c r="E4" s="68">
         <v>11.0</v>
       </c>
-      <c r="F4" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="104"/>
+      <c r="F4" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="112"/>
-      <c r="B5" s="111" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="91">
+      <c r="E5" s="68">
         <v>16.0</v>
       </c>
-      <c r="F5" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="104"/>
+      <c r="F5" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="68"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="108"/>
-      <c r="B6" s="111" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="88" t="s">
         <v>347</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="87" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="68">
         <v>16.0</v>
       </c>
-      <c r="F6" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="104"/>
+      <c r="F6" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="68"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108"/>
-      <c r="B7" s="111" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="88" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="87" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="68">
         <v>1.0</v>
       </c>
-      <c r="F7" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91">
+      <c r="F7" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
         <v>1.0</v>
       </c>
-      <c r="K7" s="110" t="s">
+      <c r="K7" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="L7" s="104"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="110" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="87" t="s">
         <v>352</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="109"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="10" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="104"/>
-      <c r="B10" s="101" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="115" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="104"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="F11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="99" t="s">
+      <c r="G11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="99" t="s">
+      <c r="H11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="99" t="s">
+      <c r="I11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="98" t="s">
+      <c r="K11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="104"/>
+      <c r="L11" s="81"/>
     </row>
     <row r="12" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="104"/>
-      <c r="B12" s="92" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="68">
         <v>15.0</v>
       </c>
-      <c r="F12" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="90" t="s">
+      <c r="F12" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="L12" s="104"/>
+      <c r="L12" s="81"/>
     </row>
     <row r="13" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
-      <c r="B13" s="97" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="74" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="68">
         <v>15.0</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="104"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
-      <c r="B14" s="92" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="68">
         <v>16.0</v>
       </c>
-      <c r="F14" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91" t="s">
+      <c r="F14" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="95"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108"/>
-      <c r="B15" s="92" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="90" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" s="91" t="s">
+      <c r="C15" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="72"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="81"/>
+      <c r="B16" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="81"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="81"/>
+      <c r="B17" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="L17" s="81"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="81"/>
+      <c r="B18" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E18" s="68">
+        <v>200.0</v>
+      </c>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="81"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="80"/>
+      <c r="B19" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="L19" s="80"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="79"/>
+      <c r="B20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="L20" s="79"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="72"/>
+      <c r="B23" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="115" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="72"/>
+      <c r="B25" s="74" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="68">
+        <v>15.0</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="68"/>
+      <c r="K25" s="67"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="68">
         <v>16.0</v>
       </c>
-      <c r="F15" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="104"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="104"/>
-      <c r="B16" s="92" t="s">
+      <c r="F26" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="J26" s="68"/>
+      <c r="K26" s="67"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
+      <c r="B27" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="D27" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="67"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="69" t="s">
         <v>362</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="C28" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="67"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="D29" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="91">
-        <v>42.0</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="104"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="103"/>
-      <c r="B17" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="91">
-        <v>16.0</v>
-      </c>
-      <c r="F17" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="103"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="95"/>
-      <c r="B18" s="92" t="s">
-        <v>365</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="95"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="104"/>
-      <c r="B19" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="90" t="s">
-        <v>368</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="104"/>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="104"/>
-      <c r="B20" s="92" t="s">
-        <v>369</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>370</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="91">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="91">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="90" t="s">
+      <c r="E29" s="68">
+        <v>200.0</v>
+      </c>
+      <c r="F29" s="68"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="70"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="67" t="s">
         <v>371</v>
       </c>
-      <c r="L20" s="104"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="104"/>
-      <c r="B21" s="92" t="s">
-        <v>372</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>373</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="91">
-        <v>200.0</v>
-      </c>
-      <c r="F21" s="106"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="104"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="103"/>
-      <c r="B22" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>374</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="90" t="s">
-        <v>375</v>
-      </c>
-      <c r="L22" s="103"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="102"/>
-      <c r="B23" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="90" t="s">
-        <v>376</v>
-      </c>
-      <c r="L23" s="102"/>
-    </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="95"/>
-      <c r="B26" s="101" t="s">
-        <v>377</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-    </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="95"/>
-      <c r="B27" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="95"/>
-      <c r="B28" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="C28" s="90" t="s">
-        <v>358</v>
-      </c>
-      <c r="D28" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="91">
-        <v>15.0</v>
-      </c>
-      <c r="F28" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="91"/>
-      <c r="K28" s="90"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="95"/>
-      <c r="B29" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="91">
-        <v>16.0</v>
-      </c>
-      <c r="F29" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="J29" s="91"/>
-      <c r="K29" s="90"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="95"/>
-      <c r="B30" s="97" t="s">
-        <v>379</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>348</v>
-      </c>
-      <c r="D30" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="91">
-        <v>16.0</v>
-      </c>
-      <c r="F30" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="90"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="95"/>
-      <c r="B31" s="92" t="s">
-        <v>361</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="91">
-        <v>42.0</v>
-      </c>
-      <c r="F31" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="96"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="95"/>
-      <c r="B32" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="D32" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="91">
-        <v>16.0</v>
-      </c>
-      <c r="F32" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="90"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="95"/>
-      <c r="B33" s="92" t="s">
-        <v>365</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="D33" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="90"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="C34" s="90" t="s">
-        <v>368</v>
-      </c>
-      <c r="D34" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="90"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="92" t="s">
-        <v>372</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>373</v>
-      </c>
-      <c r="D35" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="91">
-        <v>200.0</v>
-      </c>
-      <c r="F35" s="91"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="93"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="90" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="89"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="87"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="66"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C23:K23"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="C10:K10"/>
   </mergeCells>

--- a/document/交易大盘数据库设计表@20180322.xlsx
+++ b/document/交易大盘数据库设计表@20180322.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22936" windowHeight="9918" activeTab="4" tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22936" windowHeight="9903" activeTab="4" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="372">
   <si>
     <t>user_tab</t>
   </si>
@@ -1531,12 +1531,6 @@
   </si>
   <si>
     <t>盛源币</t>
-  </si>
-  <si>
-    <t>tranRatio</t>
-  </si>
-  <si>
-    <t>交易费率</t>
   </si>
   <si>
     <r>
@@ -10922,10 +10916,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="1"/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -11306,7 +11300,7 @@
       <c r="K15" s="67"/>
       <c r="L15" s="72"/>
     </row>
-    <row r="16" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="81"/>
       <c r="B16" s="69" t="s">
         <v>362</v>
@@ -11315,203 +11309,204 @@
         <v>363</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="E16" s="68">
+        <v>1.0</v>
       </c>
       <c r="F16" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="67"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="L16" s="81"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="81"/>
       <c r="B17" s="69" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E17" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>15</v>
-      </c>
+        <v>200.0</v>
+      </c>
+      <c r="F17" s="83"/>
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
       <c r="I17" s="84"/>
-      <c r="J17" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="K17" s="67" t="s">
-        <v>366</v>
-      </c>
+      <c r="J17" s="83"/>
+      <c r="K17" s="82"/>
       <c r="L17" s="81"/>
     </row>
     <row r="18" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="81"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="D18" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="67" t="s">
         <v>368</v>
       </c>
-      <c r="D18" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="68">
-        <v>200.0</v>
-      </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81"/>
+      <c r="L18" s="80"/>
     </row>
     <row r="19" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="69" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>369</v>
+        <v>84</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="F19" s="68" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="L19" s="79"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="78" t="s">
         <v>370</v>
       </c>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="67" t="s">
+      <c r="C22" s="115" t="s">
         <v>371</v>
       </c>
-      <c r="L20" s="79"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="115" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="75" t="s">
-        <v>11</v>
-      </c>
+      <c r="B24" s="74" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="68">
+        <v>15.0</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="68"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="74" t="s">
-        <v>357</v>
+      <c r="B25" s="69" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>358</v>
+        <v>104</v>
       </c>
       <c r="D25" s="68" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="68">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="68"/>
-      <c r="H25" s="68" t="s">
-        <v>15</v>
-      </c>
+      <c r="H25" s="68"/>
       <c r="I25" s="68" t="s">
-        <v>15</v>
+        <v>359</v>
       </c>
       <c r="J25" s="68"/>
       <c r="K25" s="67"/>
@@ -11519,64 +11514,57 @@
     <row r="26" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
       <c r="B26" s="69" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>104</v>
+        <v>361</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="68">
-        <v>16.0</v>
+        <v>28</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="68"/>
       <c r="H26" s="68"/>
-      <c r="I26" s="68" t="s">
-        <v>359</v>
-      </c>
+      <c r="I26" s="68"/>
       <c r="J26" s="68"/>
       <c r="K26" s="67"/>
     </row>
     <row r="27" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
       <c r="B27" s="69" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
+        <v>17</v>
+      </c>
+      <c r="E27" s="68">
+        <v>200.0</v>
+      </c>
+      <c r="F27" s="68"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="68"/>
-      <c r="K27" s="67"/>
+      <c r="K27" s="70"/>
     </row>
     <row r="28" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="69" t="s">
-        <v>362</v>
+        <v>43</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="68" t="s">
-        <v>29</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E28" s="68"/>
       <c r="F28" s="68" t="s">
         <v>15</v>
       </c>
@@ -11584,65 +11572,25 @@
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>368</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="68">
-        <v>200.0</v>
-      </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="70"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="67" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="66"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="64"/>
+      <c r="K28" s="67" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="66"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C22:K22"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="C10:K10"/>
   </mergeCells>

--- a/document/交易大盘数据库设计表@20180322.xlsx
+++ b/document/交易大盘数据库设计表@20180322.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22936" windowHeight="9903" activeTab="4" tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22936" windowHeight="9888" activeTab="4" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="374">
   <si>
     <t>user_tab</t>
   </si>
@@ -1533,6 +1533,12 @@
     <t>盛源币</t>
   </si>
   <si>
+    <t>coinType</t>
+  </si>
+  <si>
+    <t>币种类型</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12.0"/>
@@ -1589,7 +1595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="11">
+  <fonts count="12" x14ac:knownFonts="12">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -1646,6 +1652,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1677,7 +1688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -2922,6 +2933,21 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2967,7 +2993,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3312,7 +3338,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="92" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10919,7 +10948,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -11300,213 +11329,212 @@
       <c r="K15" s="67"/>
       <c r="L15" s="72"/>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="81"/>
+    <row r="16" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
       <c r="B16" s="69" t="s">
         <v>362</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="118" t="s">
         <v>363</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E16" s="68">
-        <v>1.0</v>
+        <v>15</v>
       </c>
       <c r="F16" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="K16" s="67" t="s">
-        <v>364</v>
-      </c>
-      <c r="L16" s="81"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="72"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="81"/>
       <c r="B17" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="67" t="s">
-        <v>366</v>
-      </c>
       <c r="D17" s="68" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E17" s="68">
-        <v>200.0</v>
-      </c>
-      <c r="F17" s="83"/>
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
       <c r="I17" s="84"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="82"/>
+      <c r="J17" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>366</v>
+      </c>
       <c r="L17" s="81"/>
     </row>
     <row r="18" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="80"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="68">
+        <v>200.0</v>
+      </c>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="81"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="80"/>
+      <c r="B19" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="67" t="s">
-        <v>368</v>
-      </c>
-      <c r="L18" s="80"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="79"/>
-      <c r="B19" s="69" t="s">
-        <v>43</v>
-      </c>
       <c r="C19" s="67" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
       <c r="D19" s="68" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="68"/>
-      <c r="F19" s="68" t="s">
-        <v>15</v>
-      </c>
+      <c r="F19" s="68"/>
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="L19" s="79"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+      <c r="L19" s="80"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="79"/>
+      <c r="B20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="L20" s="79"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" s="115" t="s">
-        <v>371</v>
-      </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="115" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C24" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D24" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E24" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F24" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G24" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="76" t="s">
+      <c r="H24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="76" t="s">
+      <c r="I24" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J24" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="75" t="s">
+      <c r="K24" s="75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="74" t="s">
-        <v>357</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>358</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="68">
-        <v>15.0</v>
-      </c>
-      <c r="F24" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="69" t="s">
-        <v>16</v>
+      <c r="B25" s="74" t="s">
+        <v>357</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>104</v>
+        <v>358</v>
       </c>
       <c r="D25" s="68" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="68">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="H25" s="68" t="s">
+        <v>15</v>
+      </c>
       <c r="I25" s="68" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="J25" s="68"/>
       <c r="K25" s="67"/>
@@ -11514,57 +11542,65 @@
     <row r="26" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
       <c r="B26" s="69" t="s">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>361</v>
+        <v>104</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="68">
+        <v>16.0</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="68"/>
       <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
+      <c r="I26" s="68" t="s">
+        <v>359</v>
+      </c>
       <c r="J26" s="68"/>
       <c r="K26" s="67"/>
     </row>
     <row r="27" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
       <c r="B27" s="69" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D27" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="67"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
+      <c r="B28" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28" s="118" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="68">
-        <v>200.0</v>
-      </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="70"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="68">
+        <v>15</v>
+      </c>
       <c r="F28" s="68" t="s">
         <v>15</v>
       </c>
@@ -11572,25 +11608,66 @@
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
-      <c r="K28" s="67" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="66"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="64"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="68">
+        <v>200.0</v>
+      </c>
+      <c r="F29" s="68"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="70"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.499748" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="66"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="C10:K10"/>
   </mergeCells>
